--- a/策划案/镇魂街/新经济总表.xlsx
+++ b/策划案/镇魂街/新经济总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -14,14 +14,16 @@
     <sheet name="神器与芦花古楼" sheetId="65" r:id="rId5"/>
     <sheet name="章节" sheetId="69" r:id="rId6"/>
     <sheet name="挂机派遣" sheetId="70" r:id="rId7"/>
-    <sheet name="卡牌" sheetId="72" r:id="rId8"/>
-    <sheet name="属性表" sheetId="38" state="hidden" r:id="rId9"/>
-    <sheet name="军阶数值" sheetId="42" state="hidden" r:id="rId10"/>
-    <sheet name="突破数值备份" sheetId="49" state="hidden" r:id="rId11"/>
-    <sheet name="关卡思路" sheetId="36" state="hidden" r:id="rId12"/>
+    <sheet name="单人BOSS" sheetId="73" r:id="rId8"/>
+    <sheet name="卡牌" sheetId="72" r:id="rId9"/>
+    <sheet name="抽卡" sheetId="74" r:id="rId10"/>
+    <sheet name="属性表" sheetId="38" state="hidden" r:id="rId11"/>
+    <sheet name="军阶数值" sheetId="42" state="hidden" r:id="rId12"/>
+    <sheet name="突破数值备份" sheetId="49" state="hidden" r:id="rId13"/>
+    <sheet name="关卡思路" sheetId="36" state="hidden" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="卡牌类型名">#REF!</definedName>
@@ -135,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="680">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2383,6 +2385,274 @@
   <si>
     <t>SUM</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单人BOSS产出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各级强化石——量产
+专属武器解封材料——中概率
+收集材料——小概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属解封石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级专属强化石</t>
+  </si>
+  <si>
+    <t>中级专属强化石</t>
+  </si>
+  <si>
+    <t>高级专属强化石</t>
+  </si>
+  <si>
+    <t>概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗道具1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗道具2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗道具3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗数量1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗数量2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗数量3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级专属强化石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+  </si>
+  <si>
+    <t>曹玄亮</t>
+  </si>
+  <si>
+    <t>战斗夏玲</t>
+  </si>
+  <si>
+    <t>项昆仑</t>
+  </si>
+  <si>
+    <t>刘羽禅</t>
+  </si>
+  <si>
+    <t>红莲·缇娜</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵</t>
+  </si>
+  <si>
+    <t>黑尔·坎普</t>
+  </si>
+  <si>
+    <t>北落师门</t>
+  </si>
+  <si>
+    <t>盖文</t>
+  </si>
+  <si>
+    <t>阎风吒</t>
+  </si>
+  <si>
+    <t>南御夫</t>
+  </si>
+  <si>
+    <t>吉拉</t>
+  </si>
+  <si>
+    <t>吕仙宫</t>
+  </si>
+  <si>
+    <t>阎巧巧</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>许褚</t>
+  </si>
+  <si>
+    <t>典韦</t>
+  </si>
+  <si>
+    <t>唐流雨</t>
+  </si>
+  <si>
+    <t>李轩辕</t>
+  </si>
+  <si>
+    <t>项羽</t>
+  </si>
+  <si>
+    <t>天使缇娜</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+  </si>
+  <si>
+    <t>张郃</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+  </si>
+  <si>
+    <t>塞伯罗斯</t>
+  </si>
+  <si>
+    <t>石灵明</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>西方龙</t>
+  </si>
+  <si>
+    <t>飞廉</t>
+  </si>
+  <si>
+    <t>噬日</t>
+  </si>
+  <si>
+    <t>食火蜥</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>烈风螳螂</t>
   </si>
 </sst>
 </file>
@@ -2609,7 +2879,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2923,6 +3193,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2960,7 +3310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3115,6 +3465,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Grid" xfId="4"/>
@@ -3202,11 +3584,11 @@
       <sheetName val="关卡思路"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="4">
           <cell r="A4">
@@ -3605,10 +3987,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4151,6 +4533,1559 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="30">
+        <f>COMBIN(10,B2)*$B$1^B2*(1-$B$1)^(10-B2)</f>
+        <v>0.19687440434072256</v>
+      </c>
+      <c r="C3" s="30">
+        <f>COMBIN(10,C2)*$B$1^C2*(1-$B$1)^(10-C2)</f>
+        <v>0.34742541942480454</v>
+      </c>
+      <c r="D3" s="30">
+        <f>COMBIN(10,D2)*$B$1^D2*(1-$B$1)^(10-D2)</f>
+        <v>0.27589665660205065</v>
+      </c>
+      <c r="E3" s="30">
+        <f>COMBIN(10,E2)*$B$1^E2*(1-$B$1)^(10-E2)</f>
+        <v>0.12983372075390617</v>
+      </c>
+      <c r="F3" s="30">
+        <f>COMBIN(10,F2)*$B$1^F2*(1-$B$1)^(10-F2)</f>
+        <v>4.0095707879882793E-2</v>
+      </c>
+      <c r="G3" s="30">
+        <f>COMBIN(10,G2)*$B$1^G2*(1-$B$1)^(10-G2)</f>
+        <v>8.4908557863281227E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="63">
+        <v>0.02</v>
+      </c>
+      <c r="B6" s="63">
+        <v>0.13</v>
+      </c>
+      <c r="C6" s="63">
+        <v>0.85</v>
+      </c>
+      <c r="E6" s="63">
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="63">
+        <v>0.13</v>
+      </c>
+      <c r="G6" s="63">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="65">
+        <v>4</v>
+      </c>
+      <c r="B7" s="65">
+        <v>6</v>
+      </c>
+      <c r="C7" s="65">
+        <v>5</v>
+      </c>
+      <c r="E7" s="65">
+        <v>7</v>
+      </c>
+      <c r="F7" s="65">
+        <v>7</v>
+      </c>
+      <c r="G7" s="65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="30">
+        <f>A6/A7</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B8" s="30">
+        <f t="shared" ref="B8:C8" si="0">B6/B7</f>
+        <v>2.1666666666666667E-2</v>
+      </c>
+      <c r="C8" s="30">
+        <f t="shared" si="0"/>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="E8" s="30">
+        <f>E6/E7</f>
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="F8" s="30">
+        <f t="shared" ref="F8:G8" si="1">F6/F7</f>
+        <v>1.8571428571428572E-2</v>
+      </c>
+      <c r="G8" s="30">
+        <f t="shared" si="1"/>
+        <v>0.14166666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E15" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>659</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>645</v>
+      </c>
+      <c r="B19" s="19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="21">
+        <f>INT(B19*10000)</f>
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>660</v>
+      </c>
+      <c r="F19" s="19">
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="H19">
+        <f>INT(F19*10000)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>646</v>
+      </c>
+      <c r="B20" s="19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="21">
+        <f t="shared" ref="C20:C32" si="2">INT(B20*10000)</f>
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>665</v>
+      </c>
+      <c r="F20" s="19">
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" ref="H20:H38" si="3">INT(F20*10000)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>648</v>
+      </c>
+      <c r="B21" s="19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C21" s="21">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>667</v>
+      </c>
+      <c r="F21" s="19">
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="H21" s="21">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>651</v>
+      </c>
+      <c r="B22" s="19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C22" s="21">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>668</v>
+      </c>
+      <c r="F22" s="19">
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="H22" s="21">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>642</v>
+      </c>
+      <c r="B23" s="19">
+        <v>2.1666666666666667E-2</v>
+      </c>
+      <c r="C23" s="21">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="E23" t="s">
+        <v>669</v>
+      </c>
+      <c r="F23" s="19">
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="H23" s="21">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>644</v>
+      </c>
+      <c r="B24" s="19">
+        <v>2.1666666666666667E-2</v>
+      </c>
+      <c r="C24" s="21">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="E24" t="s">
+        <v>670</v>
+      </c>
+      <c r="F24" s="19">
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="H24" s="21">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>647</v>
+      </c>
+      <c r="B25" s="19">
+        <v>2.1666666666666667E-2</v>
+      </c>
+      <c r="C25" s="21">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="E25" t="s">
+        <v>674</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="H25" s="21">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>650</v>
+      </c>
+      <c r="B26" s="19">
+        <v>2.1666666666666667E-2</v>
+      </c>
+      <c r="C26" s="21">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="E26" t="s">
+        <v>661</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1.8571428571428572E-2</v>
+      </c>
+      <c r="H26" s="21">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>652</v>
+      </c>
+      <c r="B27" s="19">
+        <v>2.1666666666666667E-2</v>
+      </c>
+      <c r="C27" s="21">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="E27" t="s">
+        <v>662</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1.8571428571428572E-2</v>
+      </c>
+      <c r="H27" s="21">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>655</v>
+      </c>
+      <c r="B28" s="19">
+        <v>2.1666666666666667E-2</v>
+      </c>
+      <c r="C28" s="21">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="E28" t="s">
+        <v>664</v>
+      </c>
+      <c r="F28" s="19">
+        <v>1.8571428571428572E-2</v>
+      </c>
+      <c r="H28" s="21">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>643</v>
+      </c>
+      <c r="B29" s="19">
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="C29" s="21">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+      <c r="E29" t="s">
+        <v>666</v>
+      </c>
+      <c r="F29" s="19">
+        <v>1.8571428571428572E-2</v>
+      </c>
+      <c r="H29" s="21">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>649</v>
+      </c>
+      <c r="B30" s="19">
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="C30" s="21">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+      <c r="E30" t="s">
+        <v>672</v>
+      </c>
+      <c r="F30" s="19">
+        <v>1.8571428571428572E-2</v>
+      </c>
+      <c r="H30" s="21">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>653</v>
+      </c>
+      <c r="B31" s="19">
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="C31" s="21">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+      <c r="E31" t="s">
+        <v>675</v>
+      </c>
+      <c r="F31" s="19">
+        <v>1.8571428571428572E-2</v>
+      </c>
+      <c r="H31" s="21">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>654</v>
+      </c>
+      <c r="B32" s="19">
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="C32" s="21">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+      <c r="E32" t="s">
+        <v>678</v>
+      </c>
+      <c r="F32" s="19">
+        <v>1.8571428571428572E-2</v>
+      </c>
+      <c r="H32" s="21">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>656</v>
+      </c>
+      <c r="B33" s="19">
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="C33">
+        <f>10000-SUM(C19:C32)</f>
+        <v>1704</v>
+      </c>
+      <c r="E33" t="s">
+        <v>663</v>
+      </c>
+      <c r="F33" s="19">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="H33" s="21">
+        <f t="shared" si="3"/>
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>671</v>
+      </c>
+      <c r="F34" s="19">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="H34" s="21">
+        <f t="shared" si="3"/>
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>673</v>
+      </c>
+      <c r="F35" s="19">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="H35" s="21">
+        <f t="shared" si="3"/>
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>676</v>
+      </c>
+      <c r="F36" s="19">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="H36" s="21">
+        <f t="shared" si="3"/>
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>677</v>
+      </c>
+      <c r="F37" s="19">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="H37" s="21">
+        <f t="shared" si="3"/>
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>679</v>
+      </c>
+      <c r="F38" s="19">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="H38" s="21">
+        <f>10000-SUM(H19:H37)</f>
+        <v>1429</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>10</v>
+      </c>
+      <c r="F4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14">
+        <v>20</v>
+      </c>
+      <c r="H4" s="14">
+        <v>20</v>
+      </c>
+      <c r="I4" s="14">
+        <v>20</v>
+      </c>
+      <c r="J4" s="14">
+        <v>20</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14">
+        <v>100</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>150</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>10</v>
+      </c>
+      <c r="F6" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14">
+        <v>10</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
+        <v>150</v>
+      </c>
+      <c r="H7" s="14">
+        <v>75</v>
+      </c>
+      <c r="I7" s="14">
+        <v>75</v>
+      </c>
+      <c r="J7" s="14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
+        <v>5</v>
+      </c>
+      <c r="F8" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>3</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="J8" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E11" s="14">
+        <v>10</v>
+      </c>
+      <c r="F11" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14">
+        <v>10000</v>
+      </c>
+      <c r="H11" s="14">
+        <v>10000</v>
+      </c>
+      <c r="I11" s="14">
+        <v>10000</v>
+      </c>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>9</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="14">
+        <v>10</v>
+      </c>
+      <c r="F12" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14">
+        <v>10000</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>12</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14">
+        <v>30</v>
+      </c>
+      <c r="F15" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>13</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14">
+        <v>30</v>
+      </c>
+      <c r="F16" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>14</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14">
+        <v>30</v>
+      </c>
+      <c r="F17" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>15</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14">
+        <v>30</v>
+      </c>
+      <c r="F18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0</v>
+      </c>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>16</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>10000</v>
+      </c>
+      <c r="H19" s="14">
+        <v>10000</v>
+      </c>
+      <c r="I19" s="14">
+        <v>10000</v>
+      </c>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>17</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="14">
+        <v>30</v>
+      </c>
+      <c r="F20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="14">
+        <v>15000</v>
+      </c>
+      <c r="H20" s="14">
+        <v>15000</v>
+      </c>
+      <c r="I20" s="14">
+        <v>15000</v>
+      </c>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>18</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14">
+        <v>3000</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0</v>
+      </c>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>19</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0</v>
+      </c>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>20</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0</v>
+      </c>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>21</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0</v>
+      </c>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0</v>
+      </c>
+      <c r="I25" s="14">
+        <v>0</v>
+      </c>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>23</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="14">
+        <v>10000</v>
+      </c>
+      <c r="H26" s="14">
+        <v>10000</v>
+      </c>
+      <c r="I26" s="14">
+        <v>10000</v>
+      </c>
+      <c r="J26" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -5116,7 +7051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q58"/>
   <sheetViews>
@@ -6604,7 +8539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E33"/>
   <sheetViews>
@@ -6906,8 +8841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AU103"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14392,8 +16327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V341"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26337,8 +28272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U78" sqref="U78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -41396,8 +43331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BA123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D123"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -56906,10 +58841,1277 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="10" max="10" width="16.75" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="11.625" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.125" customWidth="1"/>
+    <col min="17" max="17" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.25" customWidth="1"/>
+    <col min="21" max="21" width="8" style="21" customWidth="1"/>
+    <col min="22" max="22" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:18" s="21" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>604</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+    </row>
+    <row r="3" spans="1:18" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="H3" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="G4" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="H4" s="14">
+        <v>40</v>
+      </c>
+      <c r="I4" s="14">
+        <v>20</v>
+      </c>
+      <c r="J4" s="14">
+        <v>5</v>
+      </c>
+      <c r="K4" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="G5" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="H5" s="18">
+        <f>SUM(J13:J17)/9</f>
+        <v>484.86266666666677</v>
+      </c>
+      <c r="I5" s="18">
+        <f>SUM(K13:K17)/9</f>
+        <v>152.00888888888892</v>
+      </c>
+      <c r="J5" s="18">
+        <f>SUM(L13:L17)/9</f>
+        <v>80.954444444444476</v>
+      </c>
+      <c r="K5" s="18">
+        <f>SUM(M14:M17)/9</f>
+        <v>54.57916666666668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+    </row>
+    <row r="10" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="O10" s="30">
+        <v>1</v>
+      </c>
+      <c r="P10" s="30">
+        <v>0.65</v>
+      </c>
+      <c r="Q10" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="R10" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="O11" s="52" t="s">
+        <v>620</v>
+      </c>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+    </row>
+    <row r="12" spans="1:18" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14">
+        <v>25</v>
+      </c>
+      <c r="D13" s="14">
+        <f>SUMIFS(游戏节奏!$D$4:$D$103,游戏节奏!$A$4:$A$103,"&gt;="&amp;单人BOSS!C13,游戏节奏!$A$4:$A$103,"&lt;"&amp;单人BOSS!C14)</f>
+        <v>3.9793500000000006</v>
+      </c>
+      <c r="E13" s="14">
+        <v>3</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14">
+        <v>2</v>
+      </c>
+      <c r="J13" s="14">
+        <f>$D13*E13*2*H$4</f>
+        <v>955.04400000000021</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14">
+        <f>H13*D13*2*K$4</f>
+        <v>47.752200000000009</v>
+      </c>
+      <c r="O13" s="14">
+        <f>E13*H$4*O$10</f>
+        <v>120</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14">
+        <f t="shared" ref="O13:R17" si="0">H13*K$4*R$10</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="14">
+        <v>40</v>
+      </c>
+      <c r="D14" s="14">
+        <f>SUMIFS(游戏节奏!$D$4:$D$103,游戏节奏!$A$4:$A$103,"&gt;="&amp;单人BOSS!C14,游戏节奏!$A$4:$A$103,"&lt;"&amp;单人BOSS!C15)</f>
+        <v>6.2489999999999997</v>
+      </c>
+      <c r="E14" s="14">
+        <v>4</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="14">
+        <f>$D14*E14*2*H$4</f>
+        <v>1999.6799999999998</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14">
+        <f t="shared" ref="M14:M17" si="1">H14*D14*2*K$4</f>
+        <v>74.988</v>
+      </c>
+      <c r="O14" s="14">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14">
+        <v>3</v>
+      </c>
+      <c r="C15" s="14">
+        <v>55</v>
+      </c>
+      <c r="D15" s="14">
+        <f>SUMIFS(游戏节奏!$D$4:$D$103,游戏节奏!$A$4:$A$103,"&gt;="&amp;单人BOSS!C15,游戏节奏!$A$4:$A$103,"&lt;"&amp;单人BOSS!C16)</f>
+        <v>8.8065000000000033</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2</v>
+      </c>
+      <c r="F15" s="14">
+        <v>2</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14">
+        <v>2</v>
+      </c>
+      <c r="J15" s="14">
+        <f>$D15*E15*2*H$4</f>
+        <v>1409.0400000000004</v>
+      </c>
+      <c r="K15" s="14">
+        <f>$D15*F15*2*I$4</f>
+        <v>704.52000000000021</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14">
+        <f t="shared" si="1"/>
+        <v>105.67800000000004</v>
+      </c>
+      <c r="O15" s="14">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="P15" s="14">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14">
+        <v>4</v>
+      </c>
+      <c r="C16" s="14">
+        <v>70</v>
+      </c>
+      <c r="D16" s="14">
+        <f>SUMIFS(游戏节奏!$D$4:$D$103,游戏节奏!$A$4:$A$103,"&gt;="&amp;单人BOSS!C16,游戏节奏!$A$4:$A$103,"&lt;"&amp;单人BOSS!C17)</f>
+        <v>8.2945000000000011</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14">
+        <v>2</v>
+      </c>
+      <c r="G16" s="14">
+        <v>2</v>
+      </c>
+      <c r="H16" s="14">
+        <v>2</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14">
+        <f>$D16*F16*2*I$4</f>
+        <v>663.56000000000006</v>
+      </c>
+      <c r="L16" s="14">
+        <f>$D16*G16*2*J$4</f>
+        <v>165.89000000000001</v>
+      </c>
+      <c r="M16" s="14">
+        <f t="shared" si="1"/>
+        <v>99.53400000000002</v>
+      </c>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Q16" s="14">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="R16" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14">
+        <v>5</v>
+      </c>
+      <c r="C17" s="14">
+        <v>80</v>
+      </c>
+      <c r="D17" s="14">
+        <f>SUMIFS(游戏节奏!$D$4:$D$103,游戏节奏!$A$4:$A$103,"&gt;="&amp;单人BOSS!C17,游戏节奏!$A$4:$A$103,"&lt;"&amp;90)</f>
+        <v>14.067500000000006</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14">
+        <v>4</v>
+      </c>
+      <c r="H17" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14">
+        <f>$D17*G17*2*J$4</f>
+        <v>562.70000000000027</v>
+      </c>
+      <c r="M17" s="14">
+        <f t="shared" si="1"/>
+        <v>211.0125000000001</v>
+      </c>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R17" s="14">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14">
+        <v>25</v>
+      </c>
+      <c r="D18" s="14">
+        <f>SUMIFS(游戏节奏!$D$4:$D$103,游戏节奏!$A$4:$A$103,"&gt;="&amp;单人BOSS!C18,游戏节奏!$A$4:$A$103,"&lt;"&amp;单人BOSS!C19)</f>
+        <v>3.9793500000000006</v>
+      </c>
+      <c r="E18" s="14">
+        <v>3</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14">
+        <v>2</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14">
+        <v>40</v>
+      </c>
+      <c r="D19" s="14">
+        <f>SUMIFS(游戏节奏!$D$4:$D$103,游戏节奏!$A$4:$A$103,"&gt;="&amp;单人BOSS!C19,游戏节奏!$A$4:$A$103,"&lt;"&amp;单人BOSS!C20)</f>
+        <v>6.2489999999999997</v>
+      </c>
+      <c r="E19" s="14">
+        <v>4</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14">
+        <v>2</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14">
+        <v>3</v>
+      </c>
+      <c r="C20" s="14">
+        <v>55</v>
+      </c>
+      <c r="D20" s="14">
+        <f>SUMIFS(游戏节奏!$D$4:$D$103,游戏节奏!$A$4:$A$103,"&gt;="&amp;单人BOSS!C20,游戏节奏!$A$4:$A$103,"&lt;"&amp;单人BOSS!C21)</f>
+        <v>8.8065000000000033</v>
+      </c>
+      <c r="E20" s="14">
+        <v>2</v>
+      </c>
+      <c r="F20" s="14">
+        <v>2</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14">
+        <v>2</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14">
+        <v>4</v>
+      </c>
+      <c r="C21" s="14">
+        <v>70</v>
+      </c>
+      <c r="D21" s="14">
+        <f>SUMIFS(游戏节奏!$D$4:$D$103,游戏节奏!$A$4:$A$103,"&gt;="&amp;单人BOSS!C21,游戏节奏!$A$4:$A$103,"&lt;"&amp;单人BOSS!C22)</f>
+        <v>8.2945000000000011</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14">
+        <v>2</v>
+      </c>
+      <c r="G21" s="14">
+        <v>2</v>
+      </c>
+      <c r="H21" s="14">
+        <v>2</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+    </row>
+    <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14">
+        <v>5</v>
+      </c>
+      <c r="C22" s="14">
+        <v>80</v>
+      </c>
+      <c r="D22" s="14">
+        <f>SUMIFS(游戏节奏!$D$4:$D$103,游戏节奏!$A$4:$A$103,"&gt;="&amp;单人BOSS!C22,游戏节奏!$A$4:$A$103,"&lt;"&amp;90)</f>
+        <v>14.067500000000006</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14">
+        <v>4</v>
+      </c>
+      <c r="H22" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+    </row>
+    <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14">
+        <v>25</v>
+      </c>
+      <c r="D23" s="14">
+        <f>SUMIFS(游戏节奏!$D$4:$D$103,游戏节奏!$A$4:$A$103,"&gt;="&amp;单人BOSS!C23,游戏节奏!$A$4:$A$103,"&lt;"&amp;单人BOSS!C24)</f>
+        <v>3.9793500000000006</v>
+      </c>
+      <c r="E23" s="14">
+        <v>3</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14">
+        <v>2</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14">
+        <v>2</v>
+      </c>
+      <c r="C24" s="14">
+        <v>40</v>
+      </c>
+      <c r="D24" s="14">
+        <f>SUMIFS(游戏节奏!$D$4:$D$103,游戏节奏!$A$4:$A$103,"&gt;="&amp;单人BOSS!C24,游戏节奏!$A$4:$A$103,"&lt;"&amp;单人BOSS!C25)</f>
+        <v>6.2489999999999997</v>
+      </c>
+      <c r="E24" s="14">
+        <v>4</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14">
+        <v>2</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+    </row>
+    <row r="25" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14">
+        <v>3</v>
+      </c>
+      <c r="C25" s="14">
+        <v>55</v>
+      </c>
+      <c r="D25" s="14">
+        <f>SUMIFS(游戏节奏!$D$4:$D$103,游戏节奏!$A$4:$A$103,"&gt;="&amp;单人BOSS!C25,游戏节奏!$A$4:$A$103,"&lt;"&amp;单人BOSS!C26)</f>
+        <v>8.8065000000000033</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2</v>
+      </c>
+      <c r="F25" s="14">
+        <v>2</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14">
+        <v>2</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+    </row>
+    <row r="26" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14">
+        <v>4</v>
+      </c>
+      <c r="C26" s="14">
+        <v>70</v>
+      </c>
+      <c r="D26" s="14">
+        <f>SUMIFS(游戏节奏!$D$4:$D$103,游戏节奏!$A$4:$A$103,"&gt;="&amp;单人BOSS!C26,游戏节奏!$A$4:$A$103,"&lt;"&amp;单人BOSS!C27)</f>
+        <v>8.2945000000000011</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14">
+        <v>2</v>
+      </c>
+      <c r="G26" s="14">
+        <v>2</v>
+      </c>
+      <c r="H26" s="14">
+        <v>2</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+    </row>
+    <row r="27" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14">
+        <v>5</v>
+      </c>
+      <c r="C27" s="14">
+        <v>80</v>
+      </c>
+      <c r="D27" s="14">
+        <f>SUMIFS(游戏节奏!$D$4:$D$103,游戏节奏!$A$4:$A$103,"&gt;="&amp;单人BOSS!C27,游戏节奏!$A$4:$A$103,"&lt;"&amp;90)</f>
+        <v>14.067500000000006</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
+        <v>4</v>
+      </c>
+      <c r="H27" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q31">
+        <f>SUM(Q33:Q38)</f>
+        <v>22.5</v>
+      </c>
+      <c r="T31">
+        <f>SUM(T33:T42)</f>
+        <v>40</v>
+      </c>
+      <c r="W31" s="21">
+        <f>SUM(W33:W42)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J32" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="T32" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="U32" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="V32" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="X32" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y32" s="13" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="33" spans="10:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J33" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K33" s="14">
+        <v>1000</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="M33" s="14">
+        <v>10</v>
+      </c>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>1</v>
+      </c>
+      <c r="R33" s="14">
+        <f>Q33/Q$31</f>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="S33" s="14">
+        <f>ROUND($H$5*R33*P33,0)</f>
+        <v>11</v>
+      </c>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+    </row>
+    <row r="34" spans="10:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J34" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K34" s="14">
+        <v>2000</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="M34" s="14">
+        <v>13</v>
+      </c>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="R34" s="14">
+        <f t="shared" ref="R34:R38" si="2">Q34/Q$31</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="S34" s="14">
+        <f t="shared" ref="S34:S38" si="3">ROUND($H$5*R34*P34,0)</f>
+        <v>13</v>
+      </c>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+    </row>
+    <row r="35" spans="10:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J35" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K35" s="14">
+        <v>3000</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="M35" s="14">
+        <v>15</v>
+      </c>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>2</v>
+      </c>
+      <c r="R35" s="14">
+        <f t="shared" si="2"/>
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="S35" s="14">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+    </row>
+    <row r="36" spans="10:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J36" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K36" s="14">
+        <v>4000</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="M36" s="14">
+        <v>20</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="O36" s="14">
+        <v>1</v>
+      </c>
+      <c r="P36" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="Q36" s="14">
+        <v>3</v>
+      </c>
+      <c r="R36" s="14">
+        <f t="shared" si="2"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="S36" s="14">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="T36" s="14">
+        <v>1</v>
+      </c>
+      <c r="U36" s="14">
+        <f>T36/T$31</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="V36" s="14">
+        <f>ROUND($I$5*U36*P36,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+    </row>
+    <row r="37" spans="10:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J37" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K37" s="14">
+        <v>5000</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="M37" s="14">
+        <v>25</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="O37" s="14">
+        <v>2</v>
+      </c>
+      <c r="P37" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="Q37" s="14">
+        <v>5</v>
+      </c>
+      <c r="R37" s="14">
+        <f t="shared" si="2"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="S37" s="14">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="T37" s="14">
+        <v>2</v>
+      </c>
+      <c r="U37" s="14">
+        <f t="shared" ref="U37:U42" si="4">T37/T$31</f>
+        <v>0.05</v>
+      </c>
+      <c r="V37" s="14">
+        <f t="shared" ref="V37:V42" si="5">ROUND($I$5*U37*P37,0)</f>
+        <v>2</v>
+      </c>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+    </row>
+    <row r="38" spans="10:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J38" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K38" s="14">
+        <v>6000</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="M38" s="14">
+        <v>45</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="O38" s="14">
+        <v>3</v>
+      </c>
+      <c r="P38" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>10</v>
+      </c>
+      <c r="R38" s="14">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="S38" s="14">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="T38" s="14">
+        <v>4</v>
+      </c>
+      <c r="U38" s="14">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="V38" s="14">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+    </row>
+    <row r="39" spans="10:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J39" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K39" s="14">
+        <v>7000</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="M39" s="14">
+        <v>4</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="O39" s="14">
+        <v>1</v>
+      </c>
+      <c r="P39" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14">
+        <v>5</v>
+      </c>
+      <c r="U39" s="14">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="V39" s="14">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="W39" s="14">
+        <v>1</v>
+      </c>
+      <c r="X39" s="14">
+        <f>W39/W$31</f>
+        <v>0.1</v>
+      </c>
+      <c r="Y39" s="14">
+        <f>ROUND($J$5*X39*P39,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="10:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J40" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K40" s="14">
+        <v>8000</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="M40" s="14">
+        <v>5</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="O40" s="14">
+        <v>3</v>
+      </c>
+      <c r="P40" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14">
+        <v>7</v>
+      </c>
+      <c r="U40" s="14">
+        <f t="shared" si="4"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="V40" s="14">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="W40" s="14">
+        <v>2</v>
+      </c>
+      <c r="X40" s="14">
+        <f t="shared" ref="X40:X42" si="6">W40/W$31</f>
+        <v>0.2</v>
+      </c>
+      <c r="Y40" s="14">
+        <f t="shared" ref="Y40:Y42" si="7">ROUND($J$5*X40*P40,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="10:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J41" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K41" s="14">
+        <v>9000</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="M41" s="14">
+        <v>7</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="O41" s="14">
+        <v>5</v>
+      </c>
+      <c r="P41" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14">
+        <v>10</v>
+      </c>
+      <c r="U41" s="14">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="V41" s="14">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="W41" s="14">
+        <v>3</v>
+      </c>
+      <c r="X41" s="14">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="Y41" s="14">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="10:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J42" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K42" s="14">
+        <v>10000</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="M42" s="14">
+        <v>8</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="O42" s="14">
+        <v>7</v>
+      </c>
+      <c r="P42" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14">
+        <v>11</v>
+      </c>
+      <c r="U42" s="14">
+        <f t="shared" si="4"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="V42" s="14">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="W42" s="14">
+        <v>4</v>
+      </c>
+      <c r="X42" s="14">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="Y42" s="14">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E10"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="O11:R11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -57957,851 +61159,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" s="14">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14">
-        <v>10</v>
-      </c>
-      <c r="F4" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14">
-        <v>20</v>
-      </c>
-      <c r="H4" s="14">
-        <v>20</v>
-      </c>
-      <c r="I4" s="14">
-        <v>20</v>
-      </c>
-      <c r="J4" s="14">
-        <v>20</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="14">
-        <v>100</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
-        <v>150</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="N5" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
-        <v>3</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14">
-        <v>10</v>
-      </c>
-      <c r="F6" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14">
-        <v>10</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
-        <v>4</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="F7" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14">
-        <v>150</v>
-      </c>
-      <c r="H7" s="14">
-        <v>75</v>
-      </c>
-      <c r="I7" s="14">
-        <v>75</v>
-      </c>
-      <c r="J7" s="14">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14">
-        <v>5</v>
-      </c>
-      <c r="F8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14">
-        <v>3</v>
-      </c>
-      <c r="H8" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="I8" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="J8" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
-        <v>7</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14">
-        <v>1</v>
-      </c>
-      <c r="H10" s="14">
-        <v>1</v>
-      </c>
-      <c r="I10" s="14">
-        <v>1</v>
-      </c>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
-        <v>8</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="14">
-        <v>10000</v>
-      </c>
-      <c r="E11" s="14">
-        <v>10</v>
-      </c>
-      <c r="F11" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="14">
-        <v>10000</v>
-      </c>
-      <c r="H11" s="14">
-        <v>10000</v>
-      </c>
-      <c r="I11" s="14">
-        <v>10000</v>
-      </c>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
-        <v>9</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="14">
-        <v>10000</v>
-      </c>
-      <c r="E12" s="14">
-        <v>10</v>
-      </c>
-      <c r="F12" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="14">
-        <v>10000</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
-        <v>10</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="14">
-        <v>10000</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
-        <v>11</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="14">
-        <v>10000</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
-        <v>12</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="14">
-        <v>1</v>
-      </c>
-      <c r="E15" s="14">
-        <v>30</v>
-      </c>
-      <c r="F15" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
-        <v>13</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="14">
-        <v>1</v>
-      </c>
-      <c r="E16" s="14">
-        <v>30</v>
-      </c>
-      <c r="F16" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="14">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
-        <v>14</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="14">
-        <v>1</v>
-      </c>
-      <c r="E17" s="14">
-        <v>30</v>
-      </c>
-      <c r="F17" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="14">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14">
-        <v>0</v>
-      </c>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
-        <v>15</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="14">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14">
-        <v>30</v>
-      </c>
-      <c r="F18" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="14">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14">
-        <v>0</v>
-      </c>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
-        <v>16</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="14">
-        <v>10000</v>
-      </c>
-      <c r="E19" s="14">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14">
-        <v>10000</v>
-      </c>
-      <c r="H19" s="14">
-        <v>10000</v>
-      </c>
-      <c r="I19" s="14">
-        <v>10000</v>
-      </c>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
-        <v>17</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="14">
-        <v>10000</v>
-      </c>
-      <c r="E20" s="14">
-        <v>30</v>
-      </c>
-      <c r="F20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="14">
-        <v>15000</v>
-      </c>
-      <c r="H20" s="14">
-        <v>15000</v>
-      </c>
-      <c r="I20" s="14">
-        <v>15000</v>
-      </c>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
-        <v>18</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="14">
-        <v>10000</v>
-      </c>
-      <c r="E21" s="14">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14">
-        <v>3000</v>
-      </c>
-      <c r="H21" s="14">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14">
-        <v>0</v>
-      </c>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
-        <v>19</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="14">
-        <v>10000</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="14">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14">
-        <v>0</v>
-      </c>
-      <c r="I22" s="14">
-        <v>0</v>
-      </c>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="14">
-        <v>20</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="14">
-        <v>10000</v>
-      </c>
-      <c r="E23" s="14">
-        <v>0</v>
-      </c>
-      <c r="F23" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="14">
-        <v>0</v>
-      </c>
-      <c r="H23" s="14">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14">
-        <v>0</v>
-      </c>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="14">
-        <v>21</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="14">
-        <v>10000</v>
-      </c>
-      <c r="E24" s="14">
-        <v>0</v>
-      </c>
-      <c r="F24" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="14">
-        <v>0</v>
-      </c>
-      <c r="H24" s="14">
-        <v>0</v>
-      </c>
-      <c r="I24" s="14">
-        <v>0</v>
-      </c>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
-        <v>22</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="14">
-        <v>10000</v>
-      </c>
-      <c r="E25" s="14">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="14">
-        <v>0</v>
-      </c>
-      <c r="H25" s="14">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14">
-        <v>0</v>
-      </c>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
-        <v>23</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="14">
-        <v>10000</v>
-      </c>
-      <c r="E26" s="14">
-        <v>0</v>
-      </c>
-      <c r="F26" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="14">
-        <v>10000</v>
-      </c>
-      <c r="H26" s="14">
-        <v>10000</v>
-      </c>
-      <c r="I26" s="14">
-        <v>10000</v>
-      </c>
-      <c r="J26" s="14"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>